--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Partition 1 - Kiran/Coding/LeetCode Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1057D8D-6C8D-7446-8C4A-FD55A15A485B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5553B3-4F4B-604E-A2ED-AA4ABD4BC43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bit Manipulation" sheetId="1" r:id="rId1"/>
-    <sheet name="Tricks" sheetId="2" r:id="rId2"/>
+    <sheet name="Color notation" sheetId="5" r:id="rId1"/>
+    <sheet name="Bit Manipulation" sheetId="1" r:id="rId2"/>
+    <sheet name="Tricks" sheetId="2" r:id="rId3"/>
+    <sheet name="Strings" sheetId="3" r:id="rId4"/>
+    <sheet name="Tricks1" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>Problems</t>
   </si>
@@ -439,12 +442,108 @@
   <si>
     <t>https://leetcode.com/problems/decode-xored-array/</t>
   </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>1119	
+Remove Vowels from a String</t>
+  </si>
+  <si>
+    <t>1108	
+Defanging an IP Address</t>
+  </si>
+  <si>
+    <t>Trick 1</t>
+  </si>
+  <si>
+    <t>Whever we are traversing an array keep an temperory pointer 
+So that when you are done traversing you still have original address</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    char * toreturn = temp;
+    // traverse address
+    while(*address++ != '\0')
+    {</t>
+  </si>
+  <si>
+    <t>Trick1</t>
+  </si>
+  <si>
+    <t>create new array of size + 6(IPv4) +1
+Traverse old array till null
+Whenever . Is presented replace with [.]</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dlt9Gyq6rb0&amp;list=PLDdcY4olLQk0A0o2U0fOUjmO2v3X6GOxX&amp;ab_channel=Yogesh%26Shailesh%28CodeLibrary%29</t>
+  </si>
+  <si>
+    <t>Youtube Playlist</t>
+  </si>
+  <si>
+    <t>Blind 75</t>
+  </si>
+  <si>
+    <t>Grind 75</t>
+  </si>
+  <si>
+    <t>Asked ChatGPT for top 25 most asked embedded interview questions for topic</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>125. Valid Palindrome</t>
+  </si>
+  <si>
+    <t>Approach (Ugly)</t>
+  </si>
+  <si>
+    <t>Approach (Mast Wala Approach)</t>
+  </si>
+  <si>
+    <t>Load string into new string only if lts letter of characters upper case or lower
+While loading change evrything to upper case only
+In new string traverse with one index in start and another at the end, traverse till one end is not greater than another
+If not equal break and return false else return true</t>
+  </si>
+  <si>
+    <t>Blind 75
+Grind 75
+Medium
+Chat GPT</t>
+  </si>
+  <si>
+    <t>Take two pinters to Left and Right of Array
+Traverse using while loop till left is less than or equal to right
+Inside while
+    if both are not alphanumeric increment or decrement L or R 
+    if both are same do nothing if they are different break and return false</t>
+  </si>
+  <si>
+    <t>Not used</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,8 +567,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +585,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,7 +641,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -519,6 +649,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -833,11 +970,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED205E1-3AC1-8642-9FC4-14206E1A1155}">
+  <dimension ref="A2:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519AD30-E7BA-2D41-9D7D-32022A78AB58}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,7 +1179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D548E2-6D82-D74B-B61C-58DBEDE5D2D8}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1044,4 +1220,130 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CA3D01-099D-DC49-9230-76886CF37669}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="52.5" customWidth="1"/>
+    <col min="3" max="3" width="48.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Partition 1 - Kiran/Coding/LeetCode Git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5553B3-4F4B-604E-A2ED-AA4ABD4BC43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDFF74-7404-EC4B-AD47-1BEA22B55C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16140" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
   <sheets>
     <sheet name="Color notation" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Problems</t>
   </si>
@@ -536,7 +536,66 @@
     <t>Not used</t>
   </si>
   <si>
-    <t>ss</t>
+    <t>242 Valid Anagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Traverse through both the strings
+Create a frequency distributuon of both the strings
+if both identical it’s a anagram</t>
+  </si>
+  <si>
+    <t>Take the sorted versions of two strings
+Check if both the versions are same if so its an anagram</t>
+  </si>
+  <si>
+    <t>Sorting is actually not efficient
+Good Sorting Onlog
+Bad are On^2</t>
+  </si>
+  <si>
+    <t>409 Longest Palindrome</t>
+  </si>
+  <si>
+    <t>Create a frequency array of no of char appearaces
+Traverse frequency
+If char appears odd number of timer store s count -1 in odd count
+If even strores count in even_count
+Finally return odd + even count -1 if atleast one even appearance
+Else odd + even count</t>
+  </si>
+  <si>
+    <t>O(n) is the fastest way</t>
+  </si>
+  <si>
+    <t>trick 2</t>
+  </si>
+  <si>
+    <t>You must do this by modifying the input array in-place with O(1) extra memory.</t>
+  </si>
+  <si>
+    <t>No extra array to store variable</t>
+  </si>
+  <si>
+    <t>Chat GPT</t>
+  </si>
+  <si>
+    <t>345 Reverse Vowels in a String</t>
+  </si>
+  <si>
+    <t>First keep a Left and Right pointer to the string
+traverse till Left is less that R
+if both L and R is vowel, swap and increment both the pointers
+Else only increment the pointer hich is not vowel</t>
+  </si>
+  <si>
+    <t>Almost the best version in ugly approach. Just replace if states with switch cases to make it more faster</t>
+  </si>
+  <si>
+    <t>frind 75</t>
+  </si>
+  <si>
+    <t>14 Longest Common Prefix</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1033,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1235,6 +1294,7 @@
     <col min="3" max="3" width="36.6640625" customWidth="1"/>
     <col min="4" max="4" width="51.83203125" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1300,9 +1360,69 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
+    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
         <v>65</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1312,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CA3D01-099D-DC49-9230-76886CF37669}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1343,7 +1463,21 @@
         <v>49</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="https://en.wikipedia.org/wiki/In-place_algorithm" xr:uid="{74FAA623-4309-124D-A75B-41CDEF4B5D02}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DDFF74-7404-EC4B-AD47-1BEA22B55C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B15F45-924D-F646-B985-86A16EDDDA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
   <sheets>
     <sheet name="Color notation" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>Problems</t>
   </si>
@@ -596,6 +596,34 @@
   </si>
   <si>
     <t>14 Longest Common Prefix</t>
+  </si>
+  <si>
+    <t>Take a shortest length out of substrings
+Traverse from 0 to Shortest Length
+--- take the first character from first substring
+--- compare it with first characters from other substrings
+-- If all matches store that charcter in return string
+-- If for anytime charcter mismatch happens break and return new string</t>
+  </si>
+  <si>
+    <t>Grinf 75</t>
+  </si>
+  <si>
+    <t>2 Longest Substring
+Without repeating Character</t>
+  </si>
+  <si>
+    <t>Take length of string
+- Traverse fro I =o to length
+-- Traverse from j =I to length
+-- For each substring between I and j check its non repeating sequence
+-- If it is make it max length
+- Do it for all and keep updating max_length as needed
+Return max_length after two for loop within for loop completes</t>
+  </si>
+  <si>
+    <t>Sliding Window Problem
+For efficent  solution</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1311,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1414,7 +1442,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>79</v>
       </c>
@@ -1423,6 +1451,26 @@
       </c>
       <c r="C8" t="s">
         <v>80</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B15F45-924D-F646-B985-86A16EDDDA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83523EC-DC15-854F-B3FB-D51ADF7DDA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
   <sheets>
     <sheet name="Color notation" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
   <si>
     <t>Problems</t>
   </si>
@@ -624,6 +624,26 @@
   <si>
     <t>Sliding Window Problem
 For efficent  solution</t>
+  </si>
+  <si>
+    <t>Use two pointers start and end to represent a window in the string.
+Maintain a frequency counter (in this case, an array of size 256 because of ASCII characters) to record the occurrences of characters within the current window.
+Start with both pointers at the beginning of the string. end will be moved rightwards to expand the window and start will be moved rightwards to contract it.
+As you slide end to the right:
+-- If the character is new to the current window, expand the window by moving end and update the maximum length if needed.
+-- If the character already exists in the window, move start to the right to make the substring unique again.</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Solution Trick</t>
+  </si>
+  <si>
+    <t>Substring</t>
+  </si>
+  <si>
+    <t>Sliding Windows</t>
   </si>
 </sst>
 </file>
@@ -728,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -743,6 +763,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1313,8 +1334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1456,7 +1477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="204" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>82</v>
       </c>
@@ -1469,30 +1490,36 @@
       <c r="D9" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CA3D01-099D-DC49-9230-76886CF37669}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="52.5" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>47</v>
       </c>
@@ -1500,7 +1527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1511,7 +1538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1520,6 +1547,22 @@
       </c>
       <c r="C3" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83523EC-DC15-854F-B3FB-D51ADF7DDA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA053CA8-DA18-2145-8CDE-63E183C1F072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="4" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
   <sheets>
     <sheet name="Color notation" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tricks" sheetId="2" r:id="rId3"/>
     <sheet name="Strings" sheetId="3" r:id="rId4"/>
     <sheet name="Tricks1" sheetId="4" r:id="rId5"/>
+    <sheet name="Arrays" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
   <si>
     <t>Problems</t>
   </si>
@@ -1334,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CA3D01-099D-DC49-9230-76886CF37669}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -1571,4 +1572,38 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
+  <dimension ref="B1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA053CA8-DA18-2145-8CDE-63E183C1F072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31DC137-E3C8-9F4E-B346-4E367B4B760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
   <si>
     <t>Problems</t>
   </si>
@@ -645,6 +645,28 @@
   </si>
   <si>
     <t>Sliding Windows</t>
+  </si>
+  <si>
+    <t>Rasy</t>
+  </si>
+  <si>
+    <t>2942 Find Words Containing Characters</t>
+  </si>
+  <si>
+    <t>Create amalloc for string indices of wordSize elements
+Initialise return size to 0
+Reaverse the array of string
+Traverse length of each substring calculated using strlen
+if words[i][j] == x
+result me store karo value of I and increment the resturn size</t>
+  </si>
+  <si>
+    <t>Use strchr instead of manually comapring using words[][] == x
+Use realloc to change the size instead of keeping it fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC2423 
+Remove Letter To Equalize Frequency </t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519AD30-E7BA-2D41-9D7D-32022A78AB58}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1333,10 +1355,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1393,41 +1415,28 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="136" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>62</v>
-      </c>
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>62</v>
-      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="136" x14ac:dyDescent="0.2">
@@ -1438,63 +1447,100 @@
         <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>75</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>67</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="204" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+    <row r="11" spans="1:9" ht="204" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1509,7 +1555,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31DC137-E3C8-9F4E-B346-4E367B4B760B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801830D-BC40-D940-A3B6-7F5D382CED04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="5" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
   <sheets>
     <sheet name="Color notation" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
   <si>
     <t>Problems</t>
   </si>
@@ -667,6 +667,85 @@
   <si>
     <t xml:space="preserve">LC2423 
 Remove Letter To Equalize Frequency </t>
+  </si>
+  <si>
+    <t>LC 01</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>We will traverse each array and each sub calculation
+Two for loops
+If num[i] + nums[j] == eleemnt
+Return I and j inidces in a array</t>
+  </si>
+  <si>
+    <t>Using Hash Table of a complement of each no from nums[i]
+Create a hashmap where we will store the numbers if compleent is not found
+for loop from I to size fo array
+if complement is found in hashmap return I and j indexes
+if not store num[i] in hashmap[i] where hashmap is also an array</t>
+  </si>
+  <si>
+    <t>LC 11</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
+  <si>
+    <t>Container with Most Water</t>
+  </si>
+  <si>
+    <t>Take each line with I set to one line and j set to another
+in short create two for loops
+Calculate area based o these and maintain an update a global max_area variable
+Retunr that variable once all elements are traversed</t>
+  </si>
+  <si>
+    <t>Use double pointers
+Set left and right pointers
+For each calcuate area
+Now maintain the pointer whos side the max height is 
+maintaining and continuing on the sie od smaller height doen t make sens
+so if left height is mximum maintain left and reduce right
+so if right height is maximum maintain right and reduce left
+maintain a max_area variable and return that</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mus See Link for Explanation
+</t>
+  </si>
+  <si>
+    <t>https://www.code-recipe.com/post/container-with-most-water</t>
+  </si>
+  <si>
+    <t>Three Sum</t>
+  </si>
+  <si>
+    <t>LC 15</t>
+  </si>
+  <si>
+    <t>LC 12</t>
+  </si>
+  <si>
+    <t>Generate Paranthesis</t>
+  </si>
+  <si>
+    <t>LC 1881</t>
+  </si>
+  <si>
+    <t>Maximum Value After Insersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - The function iterates over the string 'n' to find the optimal position for the digit 'x'.
+ * - For positive numbers, 'x' is inserted before the first digit that is less than 'x'.
+ * - For negative numbers, 'x' is inserted before the first digit that is greater than 'x'.
+ * - The string manipulation is done considering 'n' as an array of characters.
+ *</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JdCj9bAX8tQ&amp;ab_channel=AyushiSharma</t>
   </si>
 </sst>
 </file>
@@ -771,7 +850,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -787,6 +866,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1357,8 +1439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,15 +1704,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
-  <dimension ref="B1:E3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="83" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -1644,12 +1730,92 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
       <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
         <v>57</v>
       </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G5" r:id="rId1" xr:uid="{37C1BBFD-1B4A-A543-B984-DEC3083B165E}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{209E0711-64EB-2E4D-BFAE-E8E27E86D4F5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801830D-BC40-D940-A3B6-7F5D382CED04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1D10C8-A902-784C-BA9D-13C55C273195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="5" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
   <si>
     <t>Problems</t>
   </si>
@@ -746,6 +746,43 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=JdCj9bAX8tQ&amp;ab_channel=AyushiSharma</t>
+  </si>
+  <si>
+    <t>LC 1758</t>
+  </si>
+  <si>
+    <t>Measy</t>
+  </si>
+  <si>
+    <t>Maximum Changes to Binary</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - The function iterates over each character in the string 's'.
+ * - It counts the number of changes needed to make the string follow two patterns: "010101..." and "101010...".
+ * - 'count0' is used to track the number of changes needed for the "010101..." pattern.
+ *   - For even indices (0, 2, 4, ...), the expected character is '0'.
+ *   - For odd indices (1, 3, 5, ...), the expected character is '1'.
+ * - 'count1' is used to track the number of changes needed for the "101010..." pattern.
+ *   - For even indices, the expected character is '1'.
+ *   - For odd indices, the expected character is '0'.
+ * - The function returns the minimum of 'count0' and 'count1', indicating the least number of changes needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC </t>
+  </si>
+  <si>
+    <t>Valid Soduku</t>
+  </si>
+  <si>
+    <t>// Approach:
+// 1. Use three 2D arrays (rows, colm, and box) to track the numbers present in each row, column, and 3x3 sub-box.
+// 2. Iterate through each cell in the board.
+//    - Convert the character at board[i][j] to an integer index (0-8) if it's not '.'.
+//    - Calculate the index of the 3x3 sub-box.
+//    - Check if the number already exists in the corresponding row, column, and sub-box.
+//      - If it does, return false (invalid Sudoku).
+//    - Otherwise, mark the number as seen in the corresponding row, column, and sub-box.
+// 3. If no duplicates are found, return true (valid Sudoku).</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1811,6 +1848,34 @@
         <v>114</v>
       </c>
     </row>
+    <row r="8" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="170" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{37C1BBFD-1B4A-A543-B984-DEC3083B165E}"/>

--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1D10C8-A902-784C-BA9D-13C55C273195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C2A85-61C5-F24A-868C-ECEBEFA822D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="5" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
   <si>
     <t>Problems</t>
   </si>
@@ -691,9 +691,6 @@
     <t>LC 11</t>
   </si>
   <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
     <t>Container with Most Water</t>
   </si>
   <si>
@@ -749,9 +746,6 @@
   </si>
   <si>
     <t>LC 1758</t>
-  </si>
-  <si>
-    <t>Measy</t>
   </si>
   <si>
     <t>Maximum Changes to Binary</t>
@@ -783,6 +777,104 @@
 //      - If it does, return false (invalid Sudoku).
 //    - Otherwise, mark the number as seen in the corresponding row, column, and sub-box.
 // 3. If no duplicates are found, return true (valid Sudoku).</t>
+  </si>
+  <si>
+    <t>LC 55</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * 
+ * At each step, the function calculates the furthest position that can be reached (longest_jump) from the current or previous steps. 
+ * If at any point, the current index is greater than the longest_jump, it means there's a gap that cannot be crossed, and the function returns false.
+ * If the longest_jump reaches or exceeds the last index of the array, it means the end is reachable, and the function returns true.
+ * </t>
+  </si>
+  <si>
+    <t>LC 45</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The algorithm uses a greedy approach with a sliding window technique.
+ * - 'left' and 'right' pointers define the current window, indicating the range of indices reachable in the current jump.
+ * - Within each window, iterate to find the 'farthest' position that can be reached in the next jump.
+ * - After examining the current window, update 'left' to be one more than 'right' (the start of the next window),
+ *   and 'right' to be the 'farthest' reachable index.
+ * - Increment 'result' each time the window is updated, representing a jump.
+ * - Continue this process until 'right' reaches or surpasses the last index of the array.
+ * </t>
+  </si>
+  <si>
+    <t>Lc 48</t>
+  </si>
+  <si>
+    <t>Rotate Image</t>
+  </si>
+  <si>
+    <t>Neet Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC 56 </t>
+  </si>
+  <si>
+    <t>Merged Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Detailed Approach:
+ * The function rotates the matrix layer by layer, starting from the outermost layer and moving towards the inner layers.
+ * It treats each layer as a ring and performs a cyclic rotation of the elements in that ring.
+ *
+ * For each layer, the rotation is achieved by moving elements in groups of four, 
+ * corresponding to the four sides of the matrix (top, right, bottom, left):
+ * 1. Save the elements of the top row in a temporary variable.
+ * 2. Move the elements from the left column to the top row.
+ * 3. Move the elements from the bottom row to the left column.
+ * 4. Move the elements from the right column to the bottom row.
+ * 5. Finally, move the elements saved in step 1 (original top row) to the right column.
+ *
+ * This process is repeated for each layer, with the left and right pointers moving closer towards the center after each layer is processed.
+ *
+ * The rotation is done in four steps to ensure that each element is moved to its correct rotated position. This method 
+ * maintains the in-place requirement by not using any additional arrays for the rotation.
+ *</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @ Brute Force Approach:
+ * - Iterate through each interval in the input array.
+ * - For each interval, compare it with every other interval to check for any overlaps.
+ * - If two intervals overlap, merge them into one interval.
+ * - The process is repeated until no more overlapping intervals can be found.
+ * - During each iteration, overlapping intervals are merged and removed from the list of intervals to be checked.
+ *</t>
+  </si>
+  <si>
+    <t>NOT SOLVED</t>
+  </si>
+  <si>
+    <t>LC 139</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Approach:
+ * The function uses dynamic programming to build up a solution in a bottom-up manner.
+ * It creates a boolean DP array where DP[i] represents whether the substring s[0...i] 
+ * can be segmented into dictionary words. The DP array is iterated backward.
+ *
+ * For each position i in the string s, the function iterates through all dictionary words.
+ * It checks if the word can fit in the substring starting from i and compares the word
+ * with the substring. If a word matches and the rest of the substring (after the word) 
+ * can also be segmented (indicated by DP[i + word length]), DP[i] is marked true.
+ *
+ * This process continues until the start of the string is reached. The value at DP[0] gives
+ * the final result, indicating whether the entire string s can be segmented into dictionary words.</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1569,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1741,16 +1833,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="77.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="56" customWidth="1"/>
-    <col min="5" max="5" width="83" customWidth="1"/>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="116.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1767,7 +1864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1786,13 +1883,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -1802,78 +1899,166 @@
         <v>100</v>
       </c>
       <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="11" t="s">
         <v>105</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
       </c>
       <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="187" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
         <v>115</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>117</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="170" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>119</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
         <v>121</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C2A85-61C5-F24A-868C-ECEBEFA822D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488D4E3-4DB2-B54A-8C19-2870748755A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="5" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
   <si>
     <t>Problems</t>
   </si>
@@ -875,6 +875,41 @@
  *
  * This process continues until the start of the string is reached. The value at DP[0] gives
  * the final result, indicating whether the entire string s can be segmented into dictionary words.</t>
+  </si>
+  <si>
+    <t>LC 227</t>
+  </si>
+  <si>
+    <t>Basic Calculator II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Approach:
+ * This program evaluates a mathematical expression represented as a string
+ * containing non-negative integers and the operators '+', '-', '*', and '/'.
+ * The approach involves using a stack to handle operator precedence and store
+ * intermediate results. The expression is processed one character at a time,
+ * updating the current number for digits, and performing operations for operators.
+ * 
+ * - When a '+' or '-' operator is encountered, the current number (or its negative)
+ *   is pushed onto the stack.
+ * - For '*' or '/', the top element of the stack is popped, the operation is performed,
+ *   and the result is pushed back onto the stack.
+ * - After processing the entire string, the stack is popped to sum all values, 
+ *   yielding the final result.
+ * </t>
+  </si>
+  <si>
+    <t>LC 283</t>
+  </si>
+  <si>
+    <t>Move Zeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Approach:
+ * The function uses two pointers - 'left' and 'right'. 'left' is used to keep track of the position
+ * where the next non-zero element should be placed, and 'right' is used to iterate through the array.
+ * When a non-zero element is found, it is swapped with the element at the 'left' index, and 'left' is incremented.
+ * Zeros are effectively moved to the end of the array, and the order of non-zero elements is maintained.</t>
   </si>
 </sst>
 </file>
@@ -1568,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1833,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="77.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2061,6 +2096,37 @@
         <v>129</v>
       </c>
     </row>
+    <row r="15" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{37C1BBFD-1B4A-A543-B984-DEC3083B165E}"/>

--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D488D4E3-4DB2-B54A-8C19-2870748755A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013C5102-12E9-AC4D-9448-7FAF0DB09629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="5" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="156">
   <si>
     <t>Problems</t>
   </si>
@@ -910,6 +910,70 @@
  * where the next non-zero element should be placed, and 'right' is used to iterate through the array.
  * When a non-zero element is found, it is swapped with the element at the 'left' index, and 'left' is incremented.
  * Zeros are effectively moved to the end of the array, and the order of non-zero elements is maintained.</t>
+  </si>
+  <si>
+    <t>LC 976</t>
+  </si>
+  <si>
+    <t>Largest Permieter traingle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Optimized Approach:
+ * - Sort the array in ascending order.
+ * - Start from the largest elements (at the end of the array).
+ * - Check each triplet for a valid triangle (triangle inequality theorem).
+ * - Return the perimeter of the first valid triangle found (largest perimeter).
+ * - Time Complexity: O(n log n) for sorting, O(n) for checking triplets, overall O(n log n).
+ * - Space Complexity: O(1), in-place sorting, no additional space needed.
+ */</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ * - Iterate over all possible triplets in the array.
+ * - Check if the triplet forms a valid triangle using the triangle inequality theorem.
+ * - Calculate and update the maximum perimeter found so far.
+ * - Time Complexity: O(n^3), where n is the size of the array.
+ * - Space Complexity: O(1), no extra space used apart from variables.</t>
+  </si>
+  <si>
+    <t>LC 1189</t>
+  </si>
+  <si>
+    <t>Maximum Number Of balloons</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Approach:
+ * 1. Create a frequency array to count occurrences of each letter in the input string.
+ * 2. Iterate through the input string and update the frequency array.
+ * 3. Extract the frequency of specific letters needed to form "balloon" (b, a, l, o, n).
+ *    - Note: Since "balloon" requires two 'l's and two 'o's, their counts are effectively halved.
+ * 4. Find the minimum count among these frequencies, which will be the maximum number of times
+ *    "balloon" can be formed.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6DV9V5HRxIM&amp;ab_channel=SaiAnishMalla</t>
+  </si>
+  <si>
+    <t>LC 1275</t>
+  </si>
+  <si>
+    <t>Winner of Tic Tac Toe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * Approach:
+ * 1. Use two arrays, A and B, to track the count of marks by Player A and Player B in each row, column, 
+ *    and diagonal. The first three elements are for rows, the next three for columns, the seventh for 
+ *    the primary diagonal, and the eighth for the secondary diagonal.
+ * 2. Traverse the moves array. For each move, update the corresponding count in either A or B based on 
+ *    the player (Player A for even i, Player B for odd i).
+ * 3. After each move, check the arrays A and B:
+ *    - If any index in A reaches 3, Player A wins.
+ *    - If any index in B reaches 3, Player B wins.
+ * 4. If all moves are played and no winner is found, the game is a draw if movesSize is 9, otherwise pending.
+ *</t>
+  </si>
+  <si>
+    <t>Excellent Explanation in Video</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="77.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2127,6 +2191,57 @@
         <v>143</v>
       </c>
     </row>
+    <row r="17" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" t="s">
+        <v>155</v>
+      </c>
+      <c r="G19" t="s">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1" xr:uid="{37C1BBFD-1B4A-A543-B984-DEC3083B165E}"/>

--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013C5102-12E9-AC4D-9448-7FAF0DB09629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D652BD1-1ED1-3240-83F6-99B5635F072C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="5" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
   <sheets>
     <sheet name="Color notation" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Strings" sheetId="3" r:id="rId4"/>
     <sheet name="Tricks1" sheetId="4" r:id="rId5"/>
     <sheet name="Arrays" sheetId="6" r:id="rId6"/>
+    <sheet name="Tricks 2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="162">
   <si>
     <t>Problems</t>
   </si>
@@ -974,6 +975,44 @@
   </si>
   <si>
     <t>Excellent Explanation in Video</t>
+  </si>
+  <si>
+    <t>LC 217</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * - Iterate over each element in the array.
+ * - For each element, iterate over the array again to compare with every other element.
+ * - If a duplicate is found (same value but different index), return true.
+ * - Continue till the end of the array. If no duplicates are found, return false.
+ *
+ * Time Complexity: O(n^2)
+ * - Because of the nested loop for each element.
+ * Space Complexity: O(1)
+ * - No extra space needed except for the loop variables.</t>
+  </si>
+  <si>
+    <t>/**
+ * Optimized Approach: Using Sorting and One Loop
+ * - Sort the array first.
+ * - Iterate through the sorted array.
+ * - Compare each element with its next element.
+ * - If any two adjacent elements are equal, return true indicating a duplicate.
+ * - If end of array is reached without finding duplicates, return false.
+ *
+ * Time Complexity: O(n log n)
+ * - Due to sorting, followed by a single pass through the array.
+ * Space Complexity: O(1)
+ * - Sorting is in-place with no additional space.
+ */</t>
+  </si>
+  <si>
+    <t>If Hashing comes its O(1) in time complexity</t>
+  </si>
+  <si>
+    <t>49 Group Anagrams</t>
   </si>
 </sst>
 </file>
@@ -1453,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1519AD30-E7BA-2D41-9D7D-32022A78AB58}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1665,10 +1704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1852,6 +1891,14 @@
       </c>
       <c r="F11" s="2" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1932,10 +1979,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="77.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1945,11 +1992,12 @@
     <col min="3" max="3" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="75.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="116.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="116.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -1963,7 +2011,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>96</v>
       </c>
@@ -1979,8 +2027,9 @@
       <c r="E3" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>107</v>
       </c>
@@ -1992,8 +2041,9 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2009,14 +2059,15 @@
       <c r="E5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="H5" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -2027,7 +2078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>110</v>
       </c>
@@ -2040,11 +2091,12 @@
       <c r="E7" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="2"/>
+      <c r="H7" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -2057,8 +2109,9 @@
       <c r="E8" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="153" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" ht="153" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -2071,11 +2124,12 @@
       <c r="E9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F9" s="2"/>
+      <c r="H9" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -2088,11 +2142,12 @@
       <c r="E10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" s="2"/>
+      <c r="H10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>123</v>
       </c>
@@ -2105,11 +2160,12 @@
       <c r="E11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="2"/>
+      <c r="H11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="289" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>127</v>
       </c>
@@ -2122,8 +2178,9 @@
       <c r="E12" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>130</v>
       </c>
@@ -2139,11 +2196,12 @@
       <c r="E13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" s="2"/>
+      <c r="H13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="204" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="204" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -2156,11 +2214,12 @@
       <c r="E14" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G14" t="s">
+      <c r="F14" s="2"/>
+      <c r="H14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="238" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="238" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>138</v>
       </c>
@@ -2173,11 +2232,12 @@
       <c r="E15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" s="2"/>
+      <c r="H15" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -2190,8 +2250,9 @@
       <c r="E16" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="136" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" ht="136" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>144</v>
       </c>
@@ -2207,8 +2268,9 @@
       <c r="E17" s="2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="119" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -2221,8 +2283,9 @@
       <c r="E18" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="187" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" ht="187" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>152</v>
       </c>
@@ -2235,18 +2298,63 @@
       <c r="E19" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" t="s">
         <v>155</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>151</v>
       </c>
+    </row>
+    <row r="20" spans="1:8" ht="221" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G5" r:id="rId1" xr:uid="{37C1BBFD-1B4A-A543-B984-DEC3083B165E}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{209E0711-64EB-2E4D-BFAE-E8E27E86D4F5}"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{37C1BBFD-1B4A-A543-B984-DEC3083B165E}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{209E0711-64EB-2E4D-BFAE-E8E27E86D4F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDD4808-C751-DC47-BF6C-C07344AFF864}">
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/statergy.xlsx
+++ b/statergy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiran/Documents/GitHub/Leet-Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D652BD1-1ED1-3240-83F6-99B5635F072C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222A7F32-7A86-8144-9892-D9B8F0FEC5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16200" activeTab="3" xr2:uid="{3D71AE53-AE20-0444-BFDD-F4EE28B54982}"/>
   </bookViews>
@@ -1155,9 +1155,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1195,7 +1195,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1301,7 +1301,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1443,7 +1443,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1706,14 +1706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BEBC29-4CD0-DE42-9A5A-60F183374579}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="51.83203125" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="62" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
@@ -1981,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30F7361-C0E3-9E4B-BA46-FF3FE1D175A7}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
